--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 20211.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
   <si>
     <t>Mat</t>
   </si>
@@ -85,205 +85,178 @@
     <t>CARRERA</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>XILCAHUA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>NOYOLA</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>CARAZA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GALICIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
+    <t>GAMBOA</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>YAMILE</t>
+  </si>
+  <si>
+    <t>ELIAN</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>JOSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>EUDY</t>
   </si>
   <si>
     <t>MIRANDA</t>
   </si>
   <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>CANSINO</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>ROBRES</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>ARENZANO</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>EDGAR DANIEL</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>KAREN ESTEPHANY</t>
-  </si>
-  <si>
-    <t>JARED URIEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
+    <t>KAREN YAZMIN</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>GERMAN ERNESTO</t>
+  </si>
+  <si>
+    <t>SURISADAY</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
   </si>
   <si>
     <t>VALERIA ANGELY</t>
   </si>
   <si>
-    <t>STEPHANIE</t>
-  </si>
-  <si>
-    <t>SIARI DANAHY</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
     <t>MARIA MAGDALENA</t>
   </si>
   <si>
-    <t>IKER</t>
-  </si>
-  <si>
-    <t>RITA ALEJANDRA</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
     <t>SAMANTHA</t>
-  </si>
-  <si>
-    <t>MARIA XIMENA</t>
-  </si>
-  <si>
-    <t>ZULEICA RENATA</t>
-  </si>
-  <si>
-    <t>ANEL</t>
-  </si>
-  <si>
-    <t>LAURA IVETTE</t>
-  </si>
-  <si>
-    <t>MARIAM GUADALUPE</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>ESTEFANI</t>
-  </si>
-  <si>
-    <t>INGRID</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
   </si>
 </sst>
 </file>
@@ -687,16 +660,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>37.5</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -710,16 +686,19 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.63</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -733,16 +712,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>41.18</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -756,16 +738,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>38.1</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -779,16 +764,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>74.29000000000001</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -802,16 +790,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>38.1</v>
+      </c>
+      <c r="H7">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -893,7 +884,7 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -916,7 +907,7 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -939,7 +930,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -962,7 +953,7 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -985,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1047,16 +1038,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>37.5</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1070,16 +1064,19 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.63</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1093,16 +1090,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>41.18</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1116,16 +1116,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>38.1</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1139,16 +1142,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>74.29000000000001</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1162,16 +1168,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>38.1</v>
+      </c>
+      <c r="H7">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,10 +1231,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1239,16 +1248,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920381</v>
+        <v>20330051920352</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1262,16 +1271,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920352</v>
+        <v>20330051920357</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1285,22 +1294,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920357</v>
+        <v>20330051920326</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1308,22 +1317,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920283</v>
+        <v>20330051920396</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1331,22 +1340,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920390</v>
+        <v>20330051920040</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1354,16 +1363,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920290</v>
+        <v>20330051920295</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1377,16 +1386,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920292</v>
+        <v>20330051920298</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1400,16 +1409,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920293</v>
+        <v>20330051920311</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1423,16 +1432,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920294</v>
+        <v>20330051920313</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1446,22 +1455,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920394</v>
+        <v>19220030050208</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1469,22 +1478,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920299</v>
+        <v>20330051920273</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1492,22 +1501,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920300</v>
+        <v>20330051920276</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1515,22 +1524,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920304</v>
+        <v>20330051920121</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1538,22 +1547,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920308</v>
+        <v>20330051920132</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1561,22 +1570,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920309</v>
+        <v>20330051920134</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1584,22 +1593,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920216</v>
+        <v>20330051920321</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1607,22 +1616,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920379</v>
+        <v>20330051920322</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -1630,22 +1639,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920314</v>
+        <v>20330051920324</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1653,16 +1662,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920316</v>
+        <v>20330051920292</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1676,22 +1685,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920344</v>
+        <v>20330051920299</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1699,116 +1708,24 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920348</v>
+        <v>20330051920309</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920350</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920353</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920355</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920382</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 20211.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>Mat</t>
   </si>
@@ -85,12 +85,6 @@
     <t>CARRERA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
@@ -103,90 +97,36 @@
     <t>HERRERA</t>
   </si>
   <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
     <t>ROJAS</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
+    <t>MARTINEZ</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>RAMOS</t>
   </si>
   <si>
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>PORRAS</t>
   </si>
   <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>NOYOLA</t>
-  </si>
-  <si>
     <t>CHIPAHUA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
     <t>MONTERROSAS</t>
   </si>
   <si>
@@ -196,12 +136,6 @@
     <t>ALFREDO</t>
   </si>
   <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
     <t>JESUS ANTONIO</t>
   </si>
   <si>
@@ -214,43 +148,10 @@
     <t>YAMILE</t>
   </si>
   <si>
-    <t>ELIAN</t>
-  </si>
-  <si>
     <t>DULCE MARIA</t>
   </si>
   <si>
-    <t>JOSELIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>KAREN YAZMIN</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
     <t>GERMAN ERNESTO</t>
-  </si>
-  <si>
-    <t>SURISADAY</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>VALERIA ANGELY</t>
   </si>
   <si>
     <t>MARIA MAGDALENA</t>
@@ -657,22 +558,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>37.5</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -686,19 +587,19 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>65.63</v>
+        <v>68.75</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -709,22 +610,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>41.18</v>
+        <v>48.57</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -738,19 +639,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -764,19 +665,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>74.29000000000001</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -790,19 +691,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -855,13 +756,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -884,7 +785,7 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -901,13 +802,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -930,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -953,7 +854,7 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -976,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1035,22 +936,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>37.5</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1064,19 +965,19 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>65.63</v>
+        <v>68.75</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1087,22 +988,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>41.18</v>
+        <v>48.57</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1116,19 +1017,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1142,19 +1043,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>74.29000000000001</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1168,19 +1069,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,10 +1132,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1248,22 +1149,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920352</v>
+        <v>20330051920326</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1271,22 +1172,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920357</v>
+        <v>20330051920396</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1294,22 +1195,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920326</v>
+        <v>20330051920040</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1317,22 +1218,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920396</v>
+        <v>20330051920295</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1340,22 +1241,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920040</v>
+        <v>20330051920311</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1363,22 +1264,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920295</v>
+        <v>20330051920134</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1386,16 +1287,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920298</v>
+        <v>20330051920299</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1409,16 +1310,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920311</v>
+        <v>20330051920309</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1427,305 +1328,6 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920313</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19220030050208</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920273</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920276</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920121</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920134</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920321</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920322</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920324</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920292</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920299</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920309</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
         <v>6</v>
       </c>
     </row>
